--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_sim/tests/fixtures/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_sim/tests/multialgorithm/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
     <sheet name="Rate laws" sheetId="11" r:id="rId8"/>
     <sheet name="Parameters" sheetId="5" r:id="rId9"/>
     <sheet name="References" sheetId="6" r:id="rId10"/>
-    <sheet name="Cross references" sheetId="12" r:id="rId11"/>
+    <sheet name="Database references" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -33,10 +33,15 @@
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -48,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -209,9 +214,15 @@
     <t xml:space="preserve">Value</t>
   </si>
   <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_1[c]</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_2[c]</t>
   </si>
   <si>
@@ -318,9 +329,6 @@
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
   </si>
   <si>
     <t xml:space="preserve">Title</t>
@@ -467,7 +475,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -495,12 +503,8 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -537,7 +541,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -545,20 +549,15 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Normal 3" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Normal 2" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Excel Built-in Explanatory Text" xfId="20" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -752,19 +751,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -797,29 +796,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F1" s="11" t="s">
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -847,23 +846,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -895,12 +894,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="42.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="42.4210526315789"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="5" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="47.4534412955466"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="47.8825910931174"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -915,13 +914,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>90</v>
+        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -956,7 +955,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -970,7 +969,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1005,9 +1004,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="30.5303643724696"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="30.7449392712551"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1022,46 +1021,46 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -1098,10 +1097,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1110,22 +1109,22 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1218,7 +1217,7 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1228,9 +1227,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="2" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.4251012145749"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="2" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.5344129554656"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.4251012145749"/>
@@ -1332,10 +1331,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="9.74898785425101"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="17.1376518218624"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="43.8097165991903"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="17.246963562753"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="12.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="44.1336032388664"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1424,12 +1423,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="9.85425101214575"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="9.96356275303644"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.4251012145749"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.5303643724696"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="5" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="5" width="8.78542510121457"/>
   </cols>
@@ -1574,28 +1573,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.4251012145749"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="5" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="5" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="5" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="5" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1606,66 +1605,90 @@
         <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1E-012</v>
       </c>
+      <c r="C2" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>2E-012</v>
       </c>
+      <c r="C3" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>3E-012</v>
       </c>
+      <c r="C4" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>4E-012</v>
       </c>
+      <c r="C5" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>5E-012</v>
       </c>
+      <c r="C6" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>6E-012</v>
       </c>
+      <c r="C7" s="8" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>7E-012</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1692,7 +1715,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1709,7 +1732,7 @@
         <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -1739,7 +1762,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1753,7 +1776,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1787,10 +1810,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="24.9595141700405"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="14.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="44.0242914979757"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="44.3481781376518"/>
     <col collapsed="false" hidden="false" max="1023" min="5" style="5" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
@@ -1803,19 +1826,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>13</v>
@@ -1827,72 +1850,72 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,14 +34,19 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="109">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -121,211 +126,211 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm will be ignored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume s.t. vol * Avogadro's num ~= an integer x En</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_1 + specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[e]: specie_4 + specie_3 ==&gt; specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c] ==&gt; specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e] ==&gt; specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[e] ==&gt; specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm will be ignored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume s.t. vol * Avogadro's num ~= an integer x En</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_1 + specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[e]: specie_4 + specie_3 ==&gt; specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c] ==&gt; specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e] ==&gt; specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[e] ==&gt; specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -751,19 +756,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -807,13 +812,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -857,7 +862,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -894,12 +899,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="42.4210526315789"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="42.7408906882591"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="5" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="48.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -917,10 +922,10 @@
         <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -969,7 +974,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1004,9 +1009,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1033,7 +1038,7 @@
         <v>95</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>96</v>
@@ -1112,16 +1117,16 @@
         <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>108</v>
@@ -1217,26 +1222,25 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G7" activeCellId="0" sqref="G7"/>
+      <selection pane="bottomRight" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="2" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1023" min="10" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="2" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1022" min="9" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1259,48 +1263,46 @@
         <v>23</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1331,10 +1333,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="9.85425101214575"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="44.4534412955466"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1349,7 +1351,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -1360,10 +1362,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -1372,15 +1374,15 @@
         <v>1.66058E-010</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1</v>
@@ -1389,7 +1391,7 @@
         <v>1.66058E-010</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1423,12 +1425,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="5" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="5" width="8.78542510121457"/>
   </cols>
@@ -1444,19 +1446,19 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>13</v>
@@ -1467,10 +1469,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
@@ -1479,16 +1481,16 @@
         <v>0</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1</v>
@@ -1497,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>45</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>46</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1</v>
@@ -1515,16 +1517,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>1</v>
@@ -1533,16 +1535,16 @@
         <v>0</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>49</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>50</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1</v>
@@ -1551,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6" s="8"/>
     </row>
@@ -1575,7 +1577,7 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1589,23 +1591,23 @@
     <col collapsed="false" hidden="false" max="4" min="2" style="5" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1616,79 +1618,79 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1E-012</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>2E-012</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>3E-012</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>4E-012</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>5E-012</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>6E-012</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>7E-012</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1729,10 +1731,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -1776,7 +1778,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1810,10 +1812,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="44.668016194332"/>
     <col collapsed="false" hidden="false" max="1023" min="5" style="5" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
@@ -1826,19 +1828,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>13</v>
@@ -1850,72 +1852,72 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>70</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>79</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,40 +13,46 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -58,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="109">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -210,6 +216,33 @@
     <t xml:space="preserve">specie_name_5</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[e]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -219,30 +252,9 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[e]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Observables</t>
   </si>
   <si>
@@ -325,12 +337,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -743,6 +749,144 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="1:6"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1023" min="5" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="6" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -756,19 +900,19 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -788,7 +932,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -815,10 +959,10 @@
         <v>22</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -838,7 +982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -862,7 +1006,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -882,7 +1026,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -899,12 +1043,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="42.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="43.17004048583"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="5" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="48.7408906882591"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -922,10 +1066,10 @@
         <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -947,7 +1091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -974,7 +1118,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -991,7 +1135,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1009,9 +1153,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1084,7 +1228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1117,16 +1261,16 @@
         <v>107</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>89</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>108</v>
@@ -1222,7 +1366,7 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1233,8 +1377,8 @@
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.31983805668016"/>
@@ -1333,10 +1477,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="44.7773279352227"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1425,12 +1569,12 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="5" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="5" width="8.78542510121457"/>
   </cols>
@@ -1575,6 +1719,140 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B15" activeCellId="0" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -1582,7 +1860,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="D8" activeCellId="0" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1591,23 +1869,23 @@
     <col collapsed="false" hidden="false" max="4" min="2" style="5" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1618,79 +1896,79 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1E-012</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>2E-012</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>3E-012</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>4E-012</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>5E-012</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>6E-012</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>7E-012</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1704,7 +1982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1731,10 +2009,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -1751,7 +2029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1778,7 +2056,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1793,142 +2071,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="1:6"/>
-  <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E27" activeCellId="0" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="44.668016194332"/>
-    <col collapsed="false" hidden="false" max="1023" min="5" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="6" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D5"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,40 +19,45 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -64,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="108">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -114,229 +119,226 @@
     <t xml:space="preserve">Test model for AccessSpeciesPopulations</t>
   </si>
   <si>
+    <t xml:space="preserve">Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank not used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm will be ignored</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume s.t. vol * Avogadro's num ~= an integer x En</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_1 + specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[e]: specie_4 + specie_3 ==&gt; specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c] ==&gt; specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e] ==&gt; specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[e] ==&gt; specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank not used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm will be ignored</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Volume s.t. vol * Avogadro's num ~= an integer x En</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_1 + specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[e]: specie_4 + specie_3 ==&gt; specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c] ==&gt; specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e] ==&gt; specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[e] ==&gt; specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -761,10 +763,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="44.9919028340081"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="45.417004048583"/>
     <col collapsed="false" hidden="false" max="1023" min="5" style="5" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
@@ -777,96 +779,96 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>69</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -900,25 +902,25 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -937,10 +939,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -948,7 +950,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -956,19 +958,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -987,10 +983,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M28" activeCellId="0" sqref="M28"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -998,7 +994,7 @@
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1006,13 +1002,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>20</v>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1043,12 +1045,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="43.5991902834008"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="5" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="6.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="49.165991902834"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1060,22 +1062,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1096,18 +1098,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="W1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1115,12 +1117,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1140,23 +1139,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="1:1"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="5" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="31.3846153846154"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="31.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1023" min="5" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1167,7 +1167,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>92</v>
@@ -1179,10 +1179,10 @@
         <v>94</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>96</v>
@@ -1209,14 +1209,12 @@
         <v>103</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1246,34 +1244,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>105</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>106</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>107</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1292,13 +1290,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
   </cols>
@@ -1324,12 +1322,12 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -1337,15 +1335,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1371,20 +1361,18 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="bottomRight" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1022" min="9" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1023" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1020" min="7" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1021" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1395,58 +1383,48 @@
         <v>2</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMG1" s="0"/>
+      <c r="AMH1" s="0"/>
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1465,23 +1443,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="10.0688259109312"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="44.7773279352227"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="5" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="45.0971659919028"/>
+    <col collapsed="false" hidden="false" max="1023" min="5" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1492,54 +1471,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="7" t="n">
+        <v>1.66058E-010</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="7" t="n">
-        <v>1.66058E-010</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="7" t="n">
+        <v>31</v>
+      </c>
+      <c r="C3" s="7" t="n">
         <v>1.66058E-010</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>31</v>
+      <c r="D3" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:D3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1556,27 +1527,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="1:6"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="10.1781376518219"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.7449392712551"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="14.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1587,122 +1559,105 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5" t="n">
+        <v>41</v>
+      </c>
+      <c r="F3" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H3" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" s="8"/>
+      <c r="G3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5" t="n">
+        <v>43</v>
+      </c>
+      <c r="F4" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="8"/>
+      <c r="G4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5" t="n">
+        <v>45</v>
+      </c>
+      <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5" s="8"/>
+      <c r="G5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5" t="n">
+        <v>47</v>
+      </c>
+      <c r="F6" s="5" t="n">
         <v>0</v>
       </c>
-      <c r="H6" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J6"/>
+  <autoFilter ref="A1:I6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1721,7 +1676,7 @@
   </sheetPr>
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -1731,8 +1686,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.5303643724696"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1743,93 +1698,93 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1869,106 +1824,106 @@
     <col collapsed="false" hidden="false" max="4" min="2" style="5" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="5" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="5" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="5" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2" s="8" t="n">
         <v>1E-012</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B3" s="8" t="n">
         <v>2E-012</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="8" t="n">
         <v>3E-012</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="8" t="n">
         <v>4E-012</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="8" t="n">
         <v>5E-012</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="8" t="n">
         <v>6E-012</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="8" t="n">
         <v>7E-012</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1987,18 +1942,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2006,15 +1961,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2034,18 +1983,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2053,12 +2002,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,16 +28,16 @@
     <sheet name="References" sheetId="16" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="163">
   <si>
     <t>Id</t>
   </si>
@@ -164,73 +164,94 @@
     <t>submodel_2</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Volume s.t. vol * Avogadro's num ~= an integer x En</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Volume s.t. vol * Avogadro's num ~= an integer x En</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>specie_1</t>
@@ -536,10 +557,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -581,47 +602,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -646,8 +637,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,10 +660,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,11 +699,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -698,34 +720,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -744,43 +765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -798,7 +783,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,7 +819,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -822,109 +933,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,6 +965,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -972,31 +1008,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,165 +1052,156 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1218,15 +1239,9 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1237,6 +1252,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1642,7 +1660,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1650,7 +1668,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1658,7 +1676,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1666,7 +1684,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -1674,7 +1692,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -1682,7 +1700,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1690,7 +1708,7 @@
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="17" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -1701,25 +1719,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="15"/>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" ht="40.5" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" ht="27" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1727,25 +1745,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="20"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1789,22 +1807,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1822,16 +1840,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -1839,16 +1857,16 @@
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -1856,16 +1874,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -1873,16 +1891,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
@@ -1890,16 +1908,16 @@
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -1944,19 +1962,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -1973,22 +1991,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -1996,22 +2014,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2019,22 +2037,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2042,22 +2060,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="F5" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2065,22 +2083,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2119,13 +2137,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2173,13 +2191,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2231,16 +2249,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G1" s="6" t="s">
         <v>18</v>
@@ -2298,16 +2316,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2324,72 +2342,72 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2429,10 +2447,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2483,28 +2501,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2557,46 +2575,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2631,7 +2649,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2639,7 +2657,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2647,7 +2665,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
@@ -2660,7 +2678,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="17" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
@@ -2668,7 +2686,7 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2694,16 +2712,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="10.3916666666667" style="18"/>
-    <col min="3" max="3" width="16.175" style="18"/>
-    <col min="4" max="4" width="9.425" style="18"/>
-    <col min="5" max="5" width="9.31666666666667" style="18"/>
-    <col min="6" max="6" width="9.425" style="18"/>
-    <col min="7" max="1020" width="8.78333333333333" style="18"/>
+    <col min="1" max="2" width="10.3916666666667" style="16"/>
+    <col min="3" max="3" width="16.175" style="16"/>
+    <col min="4" max="4" width="9.425" style="16"/>
+    <col min="5" max="5" width="9.31666666666667" style="16"/>
+    <col min="6" max="6" width="9.425" style="16"/>
+    <col min="7" max="1020" width="8.78333333333333" style="16"/>
     <col min="1021" max="1025" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="15.1" customHeight="1" spans="1:1024">
+    <row r="1" s="15" customFormat="1" ht="15.1" customHeight="1" spans="1:1024">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2731,30 +2749,30 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="16" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="16" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2768,37 +2786,37 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMM3"/>
+  <dimension ref="A1:AMP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="10.175" style="2"/>
-    <col min="2" max="2" width="17.5666666666667" style="2"/>
-    <col min="3" max="3" width="13.2833333333333" style="2"/>
-    <col min="4" max="4" width="8.375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="8.78333333333333" style="2"/>
-    <col min="7" max="7" width="9.375" style="2"/>
-    <col min="8" max="1026" width="8.78333333333333" style="2"/>
-    <col min="1027" max="1028" width="8.78333333333333" style="13"/>
-    <col min="1029" max="16384" width="9" style="13"/>
+    <col min="2" max="3" width="17.5666666666667" style="2"/>
+    <col min="4" max="5" width="13.2833333333333" style="2"/>
+    <col min="6" max="7" width="8.375" style="2" customWidth="1"/>
+    <col min="8" max="9" width="8.78333333333333" style="2"/>
+    <col min="10" max="10" width="9.375" style="2"/>
+    <col min="11" max="1029" width="8.78333333333333" style="2"/>
+    <col min="1030" max="1031" width="8.78333333333333" style="3"/>
+    <col min="1032" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1027">
-      <c r="A1" s="14" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1030">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>34</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2823,91 +2841,115 @@
         <v>41</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMM1" s="13"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:13">
+      <c r="AMP1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="16">
+        <v>49</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="14">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="2">
+      <c r="J2" s="2">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>49</v>
+      <c r="K3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3">
+  <autoFilter ref="A1:G3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2951,19 +2993,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2981,76 +3023,76 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:8">
       <c r="A2" s="11" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="F2" s="11">
         <v>0</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H2" s="12"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:8">
       <c r="A3" s="11" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F3" s="11">
         <v>0</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H3" s="12"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:8">
       <c r="A4" s="11" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F4" s="11">
         <v>0</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H4" s="12"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:8">
       <c r="A5" s="11" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="F5" s="11">
         <v>0</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H5" s="12"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:8">
       <c r="A6" s="11" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="F6" s="11">
         <v>0</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="H6" s="12"/>
     </row>
@@ -3091,13 +3133,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3114,100 +3156,100 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3257,19 +3299,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3286,121 +3328,121 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E2" s="9">
         <v>1e-12</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E3" s="9">
         <v>2e-12</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E4" s="9">
         <v>3e-12</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E5" s="9">
         <v>4e-12</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E6" s="9">
         <v>5e-12</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E7" s="9">
         <v>6e-12</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E8" s="9">
         <v>7e-12</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3437,10 +3479,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3492,10 +3534,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="165">
   <si>
     <t>Id</t>
   </si>
@@ -374,7 +374,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>reaction_1</t>
@@ -465,6 +465,12 @@
   </si>
   <si>
     <t>k_cat_5 * specie_3[e]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -556,11 +562,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -615,23 +621,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -646,9 +638,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -662,23 +728,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -693,60 +750,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -765,7 +771,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -777,19 +813,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -801,103 +837,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,13 +855,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,19 +879,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -968,6 +974,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -987,22 +1017,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1022,11 +1037,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1050,150 +1071,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1785,7 +1791,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:D6"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -2114,14 +2120,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2129,7 +2135,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2146,15 +2152,21 @@
         <v>77</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2197,7 +2209,7 @@
         <v>77</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2249,13 +2261,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>77</v>
@@ -2319,10 +2331,10 @@
         <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>77</v>
@@ -2342,72 +2354,72 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -2501,7 +2513,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>77</v>
@@ -2510,19 +2522,19 @@
         <v>63</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2575,46 +2587,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>63</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2788,7 +2800,7 @@
   <sheetPr/>
   <dimension ref="A1:AMP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="172">
   <si>
     <t>Id</t>
   </si>
@@ -176,370 +176,391 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Volume s.t. vol * Avogadro's num ~= an integer x En</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>specie_1</t>
+  </si>
+  <si>
+    <t>specie_name_1</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>specie_2</t>
+  </si>
+  <si>
+    <t>specie_name_2</t>
+  </si>
+  <si>
+    <t>specie_3</t>
+  </si>
+  <si>
+    <t>specie_name_3</t>
+  </si>
+  <si>
+    <t>specie_4</t>
+  </si>
+  <si>
+    <t>specie_name_4</t>
+  </si>
+  <si>
+    <t>specie_5</t>
+  </si>
+  <si>
+    <t>specie_name_5</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>specie_1[c]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>specie_2[c]</t>
+  </si>
+  <si>
+    <t>specie_3[c]</t>
+  </si>
+  <si>
+    <t>specie_2[e]</t>
+  </si>
+  <si>
+    <t>specie_3[e]</t>
+  </si>
+  <si>
+    <t>specie_4[e]</t>
+  </si>
+  <si>
+    <t>specie_5[e]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_1[c]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_3[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_3[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_4[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_5[e]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_e</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>[c]: specie_1 + specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[e]: specie_4 + specie_3 ==&gt; specie_5</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>specie_2[c] ==&gt; specie_2[e]</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>specie_2[e] ==&gt; specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_5</t>
+  </si>
+  <si>
+    <t>reaction_name_5</t>
+  </si>
+  <si>
+    <t>specie_3[e] ==&gt; specie_3[c]</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_1 * specie_1[c] * specie_2[c]</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_2 * specie_3[e] * specie_4[e]</t>
+  </si>
+  <si>
+    <t>reaction_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_3 * specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_4 * specie_2[e]</t>
+  </si>
+  <si>
+    <t>reaction_5-forward</t>
+  </si>
+  <si>
+    <t>k_cat_5 * specie_3[e]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>k_cat_1</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-2 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_2</t>
+  </si>
+  <si>
+    <t>k_cat_3</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_4</t>
+  </si>
+  <si>
+    <t>k_cat_5</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Volume s.t. vol * Avogadro's num ~= an integer x En</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>specie_1</t>
-  </si>
-  <si>
-    <t>specie_name_1</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>specie_2</t>
-  </si>
-  <si>
-    <t>specie_name_2</t>
-  </si>
-  <si>
-    <t>specie_3</t>
-  </si>
-  <si>
-    <t>specie_name_3</t>
-  </si>
-  <si>
-    <t>specie_4</t>
-  </si>
-  <si>
-    <t>specie_name_4</t>
-  </si>
-  <si>
-    <t>specie_5</t>
-  </si>
-  <si>
-    <t>specie_name_5</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>specie_1[c]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>specie_2[c]</t>
-  </si>
-  <si>
-    <t>specie_3[c]</t>
-  </si>
-  <si>
-    <t>specie_2[e]</t>
-  </si>
-  <si>
-    <t>specie_3[e]</t>
-  </si>
-  <si>
-    <t>specie_4[e]</t>
-  </si>
-  <si>
-    <t>specie_5[e]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_1[c]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_3[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_3[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_4[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_5[e]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_name_1</t>
-  </si>
-  <si>
-    <t>[c]: specie_1 + specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_name_2</t>
-  </si>
-  <si>
-    <t>[e]: specie_4 + specie_3 ==&gt; specie_5</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>reaction_name_3</t>
-  </si>
-  <si>
-    <t>specie_2[c] ==&gt; specie_2[e]</t>
-  </si>
-  <si>
-    <t>reaction_4</t>
-  </si>
-  <si>
-    <t>reaction_name_4</t>
-  </si>
-  <si>
-    <t>specie_2[e] ==&gt; specie_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_5</t>
-  </si>
-  <si>
-    <t>reaction_name_5</t>
-  </si>
-  <si>
-    <t>specie_3[e] ==&gt; specie_3[c]</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_1 * specie_1[c] * specie_2[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_2 * specie_3[e] * specie_4[e]</t>
-  </si>
-  <si>
-    <t>reaction_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_3 * specie_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_4 * specie_2[e]</t>
-  </si>
-  <si>
-    <t>reaction_5-forward</t>
-  </si>
-  <si>
-    <t>k_cat_5 * specie_3[e]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>k_cat_1</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-2 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_2</t>
-  </si>
-  <si>
-    <t>k_cat_3</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_4</t>
-  </si>
-  <si>
-    <t>k_cat_5</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -564,9 +585,9 @@
   <numFmts count="5">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -608,22 +629,13 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -638,14 +650,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -666,13 +678,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -681,46 +686,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -735,7 +702,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -749,8 +769,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,7 +792,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -783,49 +882,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,43 +906,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -891,19 +924,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -915,31 +948,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,7 +972,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -974,26 +995,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,6 +1030,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,17 +1073,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1062,148 +1092,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1224,6 +1245,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="35" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1248,9 +1275,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1258,9 +1282,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1666,7 +1687,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1674,7 +1695,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1682,7 +1703,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1690,7 +1711,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -1698,7 +1719,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -1706,7 +1727,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1714,7 +1735,7 @@
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="17" t="s">
+      <c r="A7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -1725,7 +1746,7 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" ht="40.5" spans="1:2">
       <c r="A9" s="4" t="s">
@@ -1813,22 +1834,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1846,16 +1867,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
@@ -1863,16 +1884,16 @@
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
@@ -1880,16 +1901,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
@@ -1897,16 +1918,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>116</v>
+      <c r="D5" s="9" t="s">
+        <v>119</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
@@ -1914,16 +1935,16 @@
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
@@ -1968,19 +1989,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -1997,22 +2018,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2020,22 +2041,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2043,22 +2064,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2066,22 +2087,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2089,22 +2110,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2122,7 +2143,7 @@
   <sheetPr/>
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2143,19 +2164,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2203,13 +2224,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2254,34 +2275,34 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="C1" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2298,19 +2319,19 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F8" sqref="F8"/>
+      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="5.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="5.5" style="2" customWidth="1"/>
@@ -2328,16 +2349,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2354,72 +2375,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D9" s="7">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2459,10 +2522,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2513,28 +2576,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2587,46 +2650,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>38</v>
+        <v>166</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2661,7 +2724,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -2669,7 +2732,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -2677,7 +2740,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>24</v>
       </c>
       <c r="B3" t="s">
@@ -2690,7 +2753,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
@@ -2698,7 +2761,7 @@
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2724,16 +2787,16 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="10.3916666666667" style="16"/>
-    <col min="3" max="3" width="16.175" style="16"/>
-    <col min="4" max="4" width="9.425" style="16"/>
-    <col min="5" max="5" width="9.31666666666667" style="16"/>
-    <col min="6" max="6" width="9.425" style="16"/>
-    <col min="7" max="1020" width="8.78333333333333" style="16"/>
+    <col min="1" max="2" width="10.3916666666667" style="17"/>
+    <col min="3" max="3" width="16.175" style="17"/>
+    <col min="4" max="4" width="9.425" style="17"/>
+    <col min="5" max="5" width="9.31666666666667" style="17"/>
+    <col min="6" max="6" width="9.425" style="17"/>
+    <col min="7" max="1020" width="8.78333333333333" style="17"/>
     <col min="1021" max="1025" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="15" customFormat="1" ht="15.1" customHeight="1" spans="1:1024">
+    <row r="1" s="16" customFormat="1" ht="15.1" customHeight="1" spans="1:1024">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2761,30 +2824,30 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="16" t="s">
+      <c r="F2" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="17" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2798,14 +2861,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMP3"/>
+  <dimension ref="A1:AMO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -2816,13 +2879,13 @@
     <col min="6" max="7" width="8.375" style="2" customWidth="1"/>
     <col min="8" max="9" width="8.78333333333333" style="2"/>
     <col min="10" max="10" width="9.375" style="2"/>
-    <col min="11" max="1029" width="8.78333333333333" style="2"/>
-    <col min="1030" max="1031" width="8.78333333333333" style="3"/>
-    <col min="1032" max="16384" width="9" style="3"/>
+    <col min="11" max="1028" width="8.78333333333333" style="2"/>
+    <col min="1029" max="1030" width="8.78333333333333" style="3"/>
+    <col min="1031" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1030">
-      <c r="A1" s="13" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1029">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -2859,87 +2922,81 @@
         <v>43</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AMO1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AMP1" s="3"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="14">
+      <c r="I2" s="7">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="2">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="2" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -2948,16 +3005,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2985,19 +3039,19 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="8.78333333333333" style="11"/>
-    <col min="2" max="2" width="15" style="11"/>
-    <col min="3" max="3" width="11.4583333333333" style="11"/>
-    <col min="4" max="4" width="10.5" style="11"/>
-    <col min="5" max="5" width="10.2833333333333" style="11"/>
-    <col min="6" max="6" width="9.425" style="11"/>
-    <col min="7" max="8" width="18.8583333333333" style="11"/>
-    <col min="9" max="9" width="10.5" style="11"/>
-    <col min="10" max="1023" width="8.78333333333333" style="11"/>
+    <col min="1" max="1" width="8.78333333333333" style="13"/>
+    <col min="2" max="2" width="15" style="13"/>
+    <col min="3" max="3" width="11.4583333333333" style="13"/>
+    <col min="4" max="4" width="10.5" style="13"/>
+    <col min="5" max="5" width="10.2833333333333" style="13"/>
+    <col min="6" max="6" width="9.425" style="13"/>
+    <col min="7" max="8" width="18.8583333333333" style="13"/>
+    <col min="9" max="9" width="10.5" style="13"/>
+    <col min="10" max="1023" width="8.78333333333333" style="13"/>
     <col min="1024" max="1025" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="10" customFormat="1" ht="45" customHeight="1" spans="1:1024">
+    <row r="1" s="12" customFormat="1" ht="45" customHeight="1" spans="1:1024">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3005,19 +3059,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>62</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>63</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3034,79 +3088,79 @@
       <c r="AMJ1"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:8">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="F2" s="13">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="11">
+      <c r="H2" s="14"/>
+    </row>
+    <row r="3" ht="15" customHeight="1" spans="1:8">
+      <c r="A3" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" s="13">
         <v>0</v>
       </c>
-      <c r="G2" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:8">
-      <c r="A3" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="G3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="4" ht="15" customHeight="1" spans="1:8">
+      <c r="A4" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="11">
+      <c r="B4" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="13">
         <v>0</v>
       </c>
-      <c r="G3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="12"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="G4" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="14"/>
+    </row>
+    <row r="5" ht="15" customHeight="1" spans="1:8">
+      <c r="A5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="11">
+      <c r="B5" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="F5" s="13">
         <v>0</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="12"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:8">
-      <c r="A5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="G5" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="14"/>
+    </row>
+    <row r="6" ht="15" customHeight="1" spans="1:8">
+      <c r="A6" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="11">
+      <c r="B6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" s="13">
         <v>0</v>
       </c>
-      <c r="G5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="12"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:8">
-      <c r="A6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="12"/>
+      <c r="G6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H6" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I6">
@@ -3145,13 +3199,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>76</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3168,100 +3222,100 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
         <v>78</v>
-      </c>
-      <c r="C2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E2" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -3300,7 +3354,7 @@
     <col min="11" max="12" width="10.5" style="2"/>
     <col min="13" max="13" width="23.35" style="2"/>
     <col min="14" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="8"/>
+    <col min="1026" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:11">
@@ -3311,19 +3365,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3340,121 +3394,121 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="11">
+        <v>1e-12</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>90</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="9">
-        <v>1e-12</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="9">
+        <v>51</v>
+      </c>
+      <c r="E3" s="11">
         <v>2e-12</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>91</v>
+      <c r="G3" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="9">
+        <v>51</v>
+      </c>
+      <c r="E4" s="11">
         <v>3e-12</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>91</v>
+      <c r="G4" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="9">
+        <v>51</v>
+      </c>
+      <c r="E5" s="11">
         <v>4e-12</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>91</v>
+      <c r="G5" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="9">
+        <v>51</v>
+      </c>
+      <c r="E6" s="11">
         <v>5e-12</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>91</v>
+      <c r="G6" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="9">
+        <v>51</v>
+      </c>
+      <c r="E7" s="11">
         <v>6e-12</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>91</v>
+      <c r="G7" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="9">
+        <v>51</v>
+      </c>
+      <c r="E8" s="11">
         <v>7e-12</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>91</v>
+      <c r="G8" s="11" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3491,10 +3545,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3522,19 +3576,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="2"/>
+    <col min="1" max="2" width="9.10833333333333" style="2"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="1025" width="9.10833333333333" style="2"/>
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3546,10 +3602,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -3562,6 +3618,28 @@
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="173">
   <si>
     <t>Id</t>
   </si>
@@ -377,6 +377,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -395,6 +398,9 @@
     <t>[c]: specie_1 + specie_2 ==&gt; specie_3</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>reaction_2</t>
   </si>
   <si>
@@ -447,9 +453,6 @@
   </si>
   <si>
     <t>k_cat_1 * specie_1[c] * specie_2[c]</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>reaction_2-forward</t>
@@ -583,11 +586,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -629,9 +632,12 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -642,54 +648,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -708,54 +683,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,9 +699,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -792,31 +795,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -834,13 +825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -852,7 +843,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,67 +951,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,43 +969,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -992,45 +995,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1059,6 +1023,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1075,15 +1054,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1092,139 +1062,172 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1805,14 +1808,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ6"/>
+  <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -1821,12 +1824,12 @@
     <col min="2" max="2" width="25.6" style="2"/>
     <col min="3" max="3" width="14.8916666666667" style="2"/>
     <col min="4" max="4" width="45.4166666666667" style="2"/>
-    <col min="5" max="1023" width="8.78333333333333" style="2"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="3"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="5" max="1024" width="8.78333333333333" style="2"/>
+    <col min="1025" max="1026" width="8.78333333333333" style="3"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1852,102 +1855,120 @@
         <v>107</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMJ1" s="3"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:5">
+      <c r="AMK1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:5">
+      <c r="F2" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:5">
+      <c r="F3" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:5">
+      <c r="F4" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
+      <c r="F5" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1989,10 +2010,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>62</v>
@@ -2018,22 +2039,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2041,22 +2062,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2064,22 +2085,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2087,22 +2108,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2110,22 +2131,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2173,10 +2194,10 @@
         <v>76</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2230,7 +2251,7 @@
         <v>76</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2282,13 +2303,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>85</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>76</v>
@@ -2352,10 +2373,10 @@
         <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>76</v>
@@ -2375,72 +2396,72 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
@@ -2448,13 +2469,13 @@
         <v>53</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D7" s="2">
         <v>1100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
@@ -2462,31 +2483,31 @@
         <v>57</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D8" s="2">
         <v>1000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D9" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F6">
+  <autoFilter ref="A1:F9">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2576,7 +2597,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>76</v>
@@ -2585,19 +2606,19 @@
         <v>62</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2650,46 +2671,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>62</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3578,7 +3599,7 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -5,62 +5,63 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="18" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="14" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="15" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId17"/>
-    <sheet name="References" sheetId="16" r:id="rId18"/>
+    <sheet name="Environment" sheetId="20" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="14" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="19" r:id="rId18"/>
+    <sheet name="References" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$9</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="177">
   <si>
     <t>Id</t>
   </si>
@@ -128,7 +129,7 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>ASP_test</t>
+    <t>taxon</t>
   </si>
   <si>
     <t>Test model for AccessSpeciesPopulations</t>
@@ -146,6 +147,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -537,9 +553,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -586,10 +599,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
@@ -648,61 +661,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -717,12 +679,70 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -736,16 +756,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -753,28 +788,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,13 +808,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -813,19 +886,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -837,55 +928,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,49 +946,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,25 +964,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -998,26 +1011,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,11 +1052,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1080,8 +1091,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1090,148 +1103,148 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1283,6 +1296,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1690,7 +1709,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1698,7 +1717,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1706,7 +1725,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1714,7 +1733,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -1722,7 +1741,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="20" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -1730,7 +1749,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1738,7 +1757,7 @@
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -1755,19 +1774,19 @@
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" ht="27" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="21"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="22" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1775,25 +1794,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="22"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="22"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="22"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1808,9 +1827,88 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="9.10833333333333" style="2"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="1025" width="9.10833333333333" style="2"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1837,31 +1935,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -1873,102 +1971,102 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1981,7 +2079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K6"/>
@@ -2010,25 +2108,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2039,22 +2137,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2062,22 +2160,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2085,22 +2183,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2108,22 +2206,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2131,22 +2229,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2159,7 +2257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K1"/>
@@ -2185,25 +2283,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>97</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2218,7 +2316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I1"/>
@@ -2245,19 +2343,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2276,7 +2374,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J1"/>
@@ -2303,22 +2401,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>19</v>
@@ -2337,7 +2435,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J9"/>
@@ -2370,22 +2468,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2396,114 +2494,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D7" s="2">
         <v>1100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D8" s="2">
         <v>1000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D9" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2614,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2543,16 +2641,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2571,7 +2669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2597,34 +2695,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>159</v>
+        <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -2639,7 +2737,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -2671,46 +2769,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2736,53 +2834,54 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H2" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="10.6"/>
+    <col min="1" max="1025" width="10.6" style="19"/>
+    <col min="1026" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="19" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="18" t="s">
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="19" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="4" ht="27" spans="1:1">
+    <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="19" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="18" t="s">
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="20" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2794,6 +2893,84 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
+    <col min="3" max="1018" width="8.78333333333333" style="2"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="18"/>
+    <col min="1020" max="16384" width="9" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ3"/>
@@ -2825,13 +3002,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -2846,30 +3023,30 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -2879,7 +3056,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMO3"/>
@@ -2913,40 +3090,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -2958,28 +3135,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -2988,36 +3165,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3026,13 +3203,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -3045,7 +3222,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ6"/>
@@ -3080,25 +3257,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3110,76 +3287,76 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:8">
       <c r="A2" s="13" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="F2" s="13">
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H2" s="14"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F3" s="13">
         <v>0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H3" s="14"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:8">
       <c r="A4" s="13" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F4" s="13">
         <v>0</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H4" s="14"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F5" s="13">
         <v>0</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H5" s="14"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:8">
       <c r="A6" s="13" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F6" s="13">
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H6" s="14"/>
     </row>
@@ -3193,7 +3370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I8"/>
@@ -3220,19 +3397,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3243,100 +3420,100 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E3" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D6" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
         <v>83</v>
-      </c>
-      <c r="C7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3349,7 +3526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K8"/>
@@ -3386,25 +3563,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3415,121 +3592,121 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" s="11">
         <v>1e-12</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" s="11">
         <v>2e-12</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E4" s="11">
         <v>3e-12</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E5" s="11">
         <v>4e-12</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E6" s="11">
         <v>5e-12</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E7" s="11">
         <v>6e-12</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E8" s="11">
         <v>7e-12</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -3539,7 +3716,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -3566,101 +3743,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="9.10833333333333" style="2"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="13" r:id="rId15"/>
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
@@ -504,7 +504,7 @@
     <t>Cell size units</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -600,10 +600,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -645,9 +645,8 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -661,6 +660,14 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -669,15 +676,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -690,8 +698,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -704,14 +725,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -725,22 +748,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -748,16 +755,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -771,25 +785,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -808,13 +808,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,31 +832,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,30 +862,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -904,13 +874,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,7 +892,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,7 +910,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -946,7 +934,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,19 +952,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,13 +988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1016,6 +1016,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1052,24 +1061,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1089,158 +1094,153 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2326,7 +2326,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="T42" sqref="T42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2379,12 +2379,12 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V45" sqref="V45"/>
+      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2897,7 +2897,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="D6" sqref="D6"/>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="179">
   <si>
     <t>Id</t>
   </si>
@@ -160,6 +160,12 @@
   </si>
   <si>
     <t>pH</t>
+  </si>
+  <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
   </si>
   <si>
     <t>Algorithm</t>
@@ -602,8 +608,8 @@
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -645,6 +651,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -659,11 +670,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -683,6 +700,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -691,35 +715,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -733,8 +738,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -762,36 +798,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -808,7 +814,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,7 +826,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,43 +940,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,109 +976,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,6 +1036,47 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1061,186 +1108,145 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1853,16 +1859,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -1873,24 +1879,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1935,31 +1941,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -1971,102 +1977,102 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2108,25 +2114,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2137,22 +2143,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -2160,22 +2166,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -2183,22 +2189,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -2206,22 +2212,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2229,22 +2235,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2283,25 +2289,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2343,19 +2349,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2379,7 +2385,7 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2401,22 +2407,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>19</v>
@@ -2468,22 +2474,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2494,114 +2500,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D7" s="2">
         <v>1100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D8" s="2">
         <v>1000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D9" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2641,16 +2647,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2695,34 +2701,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -2769,46 +2775,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2895,15 +2901,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="D6" sqref="D6"/>
+      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
@@ -2949,18 +2955,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3002,13 +3016,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3023,30 +3037,30 @@
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:6">
       <c r="A2" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:6">
       <c r="A3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>36</v>
-      </c>
       <c r="F3" s="17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3090,40 +3104,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3135,28 +3149,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -3165,36 +3179,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3203,13 +3217,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3257,25 +3271,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3287,76 +3301,76 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:8">
       <c r="A2" s="13" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F2" s="13">
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H2" s="14"/>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="13">
         <v>0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H3" s="14"/>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:8">
       <c r="A4" s="13" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" s="13">
         <v>0</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H4" s="14"/>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:8">
       <c r="A5" s="13" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F5" s="13">
         <v>0</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H5" s="14"/>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:8">
       <c r="A6" s="13" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F6" s="13">
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H6" s="14"/>
     </row>
@@ -3397,19 +3411,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3420,100 +3434,100 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
         <v>85</v>
-      </c>
-      <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3563,25 +3577,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3592,121 +3606,121 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="11">
         <v>1e-12</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="11">
         <v>2e-12</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E4" s="11">
         <v>3e-12</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E5" s="11">
         <v>4e-12</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E6" s="11">
         <v>5e-12</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E7" s="11">
         <v>6e-12</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E8" s="11">
         <v>7e-12</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -3743,16 +3757,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>19</v>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,15 @@
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
-    <sheet name="References" sheetId="16" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
+    <sheet name="References" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$9</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
@@ -51,17 +52,17 @@
     <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="185">
   <si>
     <t>Id</t>
   </si>
@@ -174,6 +175,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>submodel_1</t>
   </si>
   <si>
@@ -558,10 +562,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -605,13 +624,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -638,12 +657,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -654,6 +667,30 @@
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -677,15 +714,8 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -694,9 +724,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -716,17 +753,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -738,31 +768,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -776,9 +783,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -791,9 +798,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -814,7 +827,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -826,7 +845,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -838,13 +875,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,19 +887,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,37 +899,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -928,7 +917,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -940,61 +1001,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1017,6 +1030,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1031,6 +1059,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1061,36 +1104,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1117,140 +1130,140 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1267,6 +1280,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1285,14 +1301,14 @@
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1309,7 +1325,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1715,7 +1731,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1723,7 +1739,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1731,7 +1747,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1739,7 +1755,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -1747,7 +1763,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="21" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -1755,7 +1771,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1763,7 +1779,7 @@
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -1774,25 +1790,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" ht="40.5" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="22"/>
     </row>
     <row r="10" ht="27" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="22"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="23" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1800,25 +1816,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="23"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1833,25 +1849,25 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2:D3"/>
+      <selection pane="bottomRight" activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="2" width="9.10833333333333" style="2"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="4" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1859,10 +1875,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -1871,32 +1887,35 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1912,14 +1931,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMK6"/>
+  <dimension ref="A1:AML6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F6"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -1928,12 +1947,12 @@
     <col min="2" max="2" width="25.6" style="2"/>
     <col min="3" max="3" width="14.8916666666667" style="2"/>
     <col min="4" max="4" width="45.4166666666667" style="2"/>
-    <col min="5" max="1024" width="8.78333333333333" style="2"/>
-    <col min="1025" max="1026" width="8.78333333333333" style="3"/>
-    <col min="1027" max="16384" width="9" style="3"/>
+    <col min="5" max="1025" width="8.78333333333333" style="2"/>
+    <col min="1026" max="1027" width="8.78333333333333" style="3"/>
+    <col min="1028" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1025">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1026">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1941,25 +1960,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
@@ -1968,111 +1987,114 @@
         <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMK1" s="3"/>
+      <c r="AML1" s="3"/>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E2" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>128</v>
+        <v>41</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="E5" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2" t="b">
         <v>0</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2088,25 +2110,25 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="5" width="10.6" style="2"/>
     <col min="6" max="6" width="29.375" style="2" customWidth="1"/>
-    <col min="7" max="1025" width="10.6" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="7" max="1026" width="10.6" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2114,19 +2136,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2135,126 +2157,134 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:10">
+    <row r="2" customHeight="1" spans="1:11">
       <c r="A2" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:10">
+      <c r="K2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
       <c r="J3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:10">
+      <c r="K3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
       <c r="J4"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:10">
+      <c r="K4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:10">
+      <c r="K5"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
+      <c r="K6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2266,14 +2296,14 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2281,7 +2311,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2289,19 +2319,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2310,9 +2340,12 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2325,23 +2358,23 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T42" sqref="T42"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2349,13 +2382,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2364,9 +2397,12 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2383,51 +2419,54 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:10">
-      <c r="A1" s="8" t="s">
+    <row r="1" customHeight="1" spans="1:11">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="C1" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="8" t="s">
+      <c r="D1" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2444,14 +2483,14 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2462,11 +2501,11 @@
     <col min="4" max="4" width="5.5" style="2" customWidth="1"/>
     <col min="5" max="5" width="13.3916666666667" style="2"/>
     <col min="6" max="6" width="14.375" style="2" customWidth="1"/>
-    <col min="7" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="3"/>
+    <col min="7" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2474,16 +2513,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2492,122 +2531,125 @@
         <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>136</v>
+        <v>61</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="D7" s="2">
         <v>1100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>136</v>
+        <v>65</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>137</v>
       </c>
       <c r="D8" s="2">
         <v>1000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D9" s="7">
+        <v>137</v>
+      </c>
+      <c r="D9" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -2623,23 +2665,23 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2647,10 +2689,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2659,9 +2701,12 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2678,14 +2723,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1:V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2693,7 +2738,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2701,16 +2746,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>163</v>
+        <v>70</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>164</v>
@@ -2719,21 +2764,45 @@
         <v>165</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2744,6 +2813,168 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="2"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1025" width="10.6" style="20"/>
+    <col min="1026" max="16384" width="9" style="20"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -2775,46 +3006,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2828,70 +3059,6 @@
   <autoFilter ref="A1:D1">
     <extLst/>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="$A1:$XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1025" width="10.6" style="19"/>
-    <col min="1026" max="16384" width="9" style="19"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -2903,7 +3070,7 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
@@ -2914,8 +3081,8 @@
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="2"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="18"/>
-    <col min="1020" max="16384" width="9" style="18"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="19"/>
+    <col min="1020" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -2987,28 +3154,28 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H38" sqref="H38"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="10.3916666666667" style="17"/>
-    <col min="3" max="3" width="16.175" style="17"/>
-    <col min="4" max="4" width="9.425" style="17"/>
-    <col min="5" max="5" width="9.31666666666667" style="17"/>
-    <col min="6" max="6" width="9.425" style="17"/>
-    <col min="7" max="1020" width="8.78333333333333" style="17"/>
-    <col min="1021" max="1025" width="8.78333333333333"/>
+    <col min="1" max="2" width="10.3916666666667" style="18"/>
+    <col min="3" max="3" width="16.175" style="18"/>
+    <col min="4" max="4" width="9.425" style="18"/>
+    <col min="5" max="6" width="9.31666666666667" style="18"/>
+    <col min="7" max="7" width="9.425" style="18"/>
+    <col min="8" max="1021" width="8.78333333333333" style="18"/>
+    <col min="1022" max="1026" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="16" customFormat="1" ht="15.1" customHeight="1" spans="1:1024">
+    <row r="1" s="17" customFormat="1" ht="15.1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3025,42 +3192,45 @@
         <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMG1"/>
       <c r="AMH1"/>
       <c r="AMI1"/>
       <c r="AMJ1"/>
-    </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="17" t="s">
+      <c r="AMK1"/>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="1:7">
+      <c r="A2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="B2" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" ht="15.1" customHeight="1" spans="1:6">
-      <c r="A3" s="17" t="s">
+      <c r="G2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="17" t="s">
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="1:7">
+      <c r="A3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>40</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -3073,14 +3243,14 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMO3"/>
+  <dimension ref="A1:AMP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2:L3"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3091,47 +3261,47 @@
     <col min="6" max="7" width="8.375" style="2" customWidth="1"/>
     <col min="8" max="9" width="8.78333333333333" style="2"/>
     <col min="10" max="10" width="9.375" style="2"/>
-    <col min="11" max="1028" width="8.78333333333333" style="2"/>
-    <col min="1029" max="1030" width="8.78333333333333" style="3"/>
-    <col min="1031" max="16384" width="9" style="3"/>
+    <col min="11" max="1029" width="8.78333333333333" style="2"/>
+    <col min="1030" max="1031" width="8.78333333333333" style="3"/>
+    <col min="1032" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1029">
-      <c r="A1" s="15" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1030">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
@@ -3140,75 +3310,78 @@
         <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMO1" s="3"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:15">
+      <c r="AMP1" s="3"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="7">
+        <v>59</v>
+      </c>
+      <c r="I2" s="8">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="2">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3217,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>61</v>
+        <v>65</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -3239,31 +3412,32 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ6"/>
+  <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:K1"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="8.78333333333333" style="13"/>
-    <col min="2" max="2" width="15" style="13"/>
-    <col min="3" max="3" width="11.4583333333333" style="13"/>
-    <col min="4" max="4" width="10.5" style="13"/>
-    <col min="5" max="5" width="10.2833333333333" style="13"/>
-    <col min="6" max="6" width="9.425" style="13"/>
-    <col min="7" max="8" width="18.8583333333333" style="13"/>
-    <col min="9" max="9" width="10.5" style="13"/>
-    <col min="10" max="1023" width="8.78333333333333" style="13"/>
-    <col min="1024" max="1025" width="8.78333333333333"/>
+    <col min="1" max="1" width="8.78333333333333" style="2"/>
+    <col min="2" max="2" width="15" style="2"/>
+    <col min="3" max="3" width="11.4583333333333" style="2"/>
+    <col min="4" max="4" width="10.5" style="2"/>
+    <col min="5" max="5" width="10.2833333333333" style="2"/>
+    <col min="6" max="6" width="9.425" style="2"/>
+    <col min="7" max="8" width="18.8583333333333" style="2"/>
+    <col min="9" max="10" width="10.5" style="2"/>
+    <col min="11" max="1024" width="8.78333333333333" style="2"/>
+    <col min="1025" max="1026" width="8.78333333333333" style="15"/>
+    <col min="1027" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" s="12" customFormat="1" ht="45" customHeight="1" spans="1:1024">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3271,19 +3445,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3292,87 +3466,90 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMJ1"/>
-    </row>
-    <row r="2" ht="15" customHeight="1" spans="1:8">
-      <c r="A2" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="AMK1" s="15"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="13">
+      <c r="B2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="14"/>
-    </row>
-    <row r="3" ht="15" customHeight="1" spans="1:8">
-      <c r="A3" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="H2" s="12"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F3" s="13">
+      <c r="B3" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" ht="15" customHeight="1" spans="1:8">
-      <c r="A4" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="13" t="s">
+      <c r="G3" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="12"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F4" s="13">
+      <c r="B4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="14"/>
-    </row>
-    <row r="5" ht="15" customHeight="1" spans="1:8">
-      <c r="A5" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="B5" s="13" t="s">
+      <c r="G4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="13">
+      <c r="B5" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" ht="15" customHeight="1" spans="1:8">
-      <c r="A6" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="13" t="s">
+      <c r="G5" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="13">
+      <c r="B6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H6" s="14"/>
+      <c r="G6" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I6">
@@ -3387,23 +3564,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="6" width="15.5333333333333"/>
-    <col min="7" max="1025" width="9.10833333333333"/>
+    <col min="1" max="6" width="15.5333333333333" style="13"/>
+    <col min="7" max="1026" width="9.10833333333333" style="13"/>
+    <col min="1027" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3411,13 +3589,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3426,108 +3604,111 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
+    <row r="2" customHeight="1" spans="1:5">
+      <c r="A2" s="14" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
+      <c r="C2" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:5">
+      <c r="A3" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="C4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
+      <c r="C3" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:5">
+      <c r="A4" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
+      <c r="C4" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:5">
+      <c r="A5" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="C6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="C5" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:5">
+      <c r="A6" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
+      <c r="C6" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:5">
+      <c r="A7" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="C8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8" t="s">
-        <v>85</v>
+      <c r="C7" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:5">
+      <c r="A8" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3543,14 +3724,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A8"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
@@ -3562,14 +3743,14 @@
     <col min="6" max="6" width="10.5" style="2"/>
     <col min="7" max="7" width="10.2833333333333" style="2"/>
     <col min="8" max="8" width="9.425" style="2"/>
-    <col min="9" max="10" width="18.8583333333333" style="2"/>
-    <col min="11" max="12" width="10.5" style="2"/>
-    <col min="13" max="13" width="23.35" style="2"/>
-    <col min="14" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="10"/>
+    <col min="9" max="11" width="18.8583333333333" style="2"/>
+    <col min="12" max="13" width="10.5" style="2"/>
+    <col min="14" max="14" width="23.35" style="2"/>
+    <col min="15" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3577,19 +3758,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3598,129 +3779,132 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="11">
+        <v>59</v>
+      </c>
+      <c r="E2" s="12">
         <v>1e-12</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>97</v>
+      <c r="G2" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="12">
+        <v>2e-12</v>
+      </c>
+      <c r="G3" s="12" t="s">
         <v>98</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="11">
-        <v>2e-12</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="11">
+        <v>59</v>
+      </c>
+      <c r="E4" s="12">
         <v>3e-12</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>97</v>
+      <c r="G4" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="11">
+        <v>59</v>
+      </c>
+      <c r="E5" s="12">
         <v>4e-12</v>
       </c>
-      <c r="G5" s="11" t="s">
-        <v>97</v>
+      <c r="G5" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="11">
+        <v>59</v>
+      </c>
+      <c r="E6" s="12">
         <v>5e-12</v>
       </c>
-      <c r="G6" s="11" t="s">
-        <v>97</v>
+      <c r="G6" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="11">
+        <v>59</v>
+      </c>
+      <c r="E7" s="12">
         <v>6e-12</v>
       </c>
-      <c r="G7" s="11" t="s">
-        <v>97</v>
+      <c r="G7" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="11">
+        <v>59</v>
+      </c>
+      <c r="E8" s="12">
         <v>7e-12</v>
       </c>
-      <c r="G8" s="11" t="s">
-        <v>97</v>
+      <c r="G8" s="12" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3733,23 +3917,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3757,10 +3941,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3768,10 +3952,13 @@
       <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="11" activeTab="16"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="2" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="184">
   <si>
     <t>Id</t>
   </si>
@@ -169,7 +169,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -181,7 +181,7 @@
     <t>submodel_1</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>Algorithm will be ignored</t>
@@ -226,13 +226,13 @@
     <t>Cell</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -241,7 +241,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -256,7 +256,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>extracellular</t>
+    <t>extracellular_compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -473,9 +473,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat_1 * specie_1[c] * specie_2[c]</t>
@@ -624,10 +621,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
@@ -677,29 +674,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -722,9 +696,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -737,10 +710,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -760,39 +772,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,7 +795,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,13 +830,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,13 +854,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,25 +938,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -899,85 +950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,19 +968,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,24 +1042,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1078,6 +1057,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1089,17 +1088,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,143 +1115,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1300,15 +1297,6 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1731,7 +1719,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -1739,7 +1727,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -1747,7 +1735,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>4</v>
       </c>
       <c r="B3" t="s">
@@ -1755,7 +1743,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B4" t="s">
@@ -1763,7 +1751,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
@@ -1771,7 +1759,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>10</v>
       </c>
       <c r="B6" t="s">
@@ -1779,7 +1767,7 @@
       </c>
     </row>
     <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B7" t="s">
@@ -1796,19 +1784,19 @@
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" ht="27" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1816,25 +1804,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="23"/>
+      <c r="B12" s="20"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="23"/>
+      <c r="B13" s="20"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="23"/>
+      <c r="B14" s="20"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="23"/>
+      <c r="B15" s="20"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2117,7 +2105,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -2176,11 +2164,9 @@
       <c r="D2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>120</v>
@@ -2192,7 +2178,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:11">
       <c r="A3" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>121</v>
@@ -2200,11 +2186,9 @@
       <c r="D3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>120</v>
@@ -2216,7 +2200,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>124</v>
@@ -2224,11 +2208,9 @@
       <c r="D4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>120</v>
@@ -2240,7 +2222,7 @@
     </row>
     <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>127</v>
@@ -2248,11 +2230,9 @@
       <c r="D5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>120</v>
@@ -2264,7 +2244,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>130</v>
@@ -2272,11 +2252,9 @@
       <c r="D6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>137</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>120</v>
@@ -2328,10 +2306,10 @@
         <v>84</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>147</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>148</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2388,7 +2366,7 @@
         <v>84</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2443,13 +2421,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>84</v>
@@ -2485,12 +2463,12 @@
   <sheetPr/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2516,10 +2494,10 @@
         <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>151</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>152</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>84</v>
@@ -2542,114 +2520,107 @@
     </row>
     <row r="2" customHeight="1" spans="1:6">
       <c r="A2" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>154</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D5" s="2">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D6" s="2">
         <v>1</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="C7" s="7"/>
       <c r="D7" s="2">
         <v>1100</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>137</v>
-      </c>
+      <c r="C8" s="7"/>
       <c r="D8" s="2">
         <v>1000</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>137</v>
+        <v>161</v>
       </c>
       <c r="D9" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2667,7 +2638,7 @@
   <sheetPr/>
   <dimension ref="A1:I1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2746,10 +2717,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>84</v>
@@ -2758,10 +2729,10 @@
         <v>70</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>164</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>165</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>29</v>
@@ -2776,22 +2747,22 @@
         <v>33</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>170</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>171</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>18</v>
@@ -2841,10 +2812,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>151</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>152</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>84</v>
@@ -2853,7 +2824,7 @@
         <v>70</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>18</v>
@@ -2921,31 +2892,31 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="10.6" style="20"/>
-    <col min="1026" max="16384" width="9" style="20"/>
+    <col min="1" max="1025" width="10.6" style="17"/>
+    <col min="1026" max="16384" width="9" style="17"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="17" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="17" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2955,15 +2926,15 @@
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="17" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3006,46 +2977,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>174</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>175</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>183</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>184</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3081,8 +3052,8 @@
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
     <col min="3" max="1018" width="8.78333333333333" style="2"/>
-    <col min="1019" max="1019" width="8.78333333333333" style="19"/>
-    <col min="1020" max="16384" width="9" style="19"/>
+    <col min="1019" max="1019" width="8.78333333333333" style="16"/>
+    <col min="1020" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3161,21 +3132,21 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="10.3916666666667" style="18"/>
-    <col min="3" max="3" width="16.175" style="18"/>
-    <col min="4" max="4" width="9.425" style="18"/>
-    <col min="5" max="6" width="9.31666666666667" style="18"/>
-    <col min="7" max="7" width="9.425" style="18"/>
-    <col min="8" max="1021" width="8.78333333333333" style="18"/>
+    <col min="1" max="2" width="10.3916666666667" style="15"/>
+    <col min="3" max="3" width="16.175" style="15"/>
+    <col min="4" max="4" width="9.425" style="15"/>
+    <col min="5" max="6" width="9.31666666666667" style="15"/>
+    <col min="7" max="7" width="9.425" style="15"/>
+    <col min="8" max="1021" width="8.78333333333333" style="15"/>
     <col min="1022" max="1026" width="8.78333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" s="17" customFormat="1" ht="15.1" customHeight="1" spans="1:1025">
+    <row r="1" s="14" customFormat="1" ht="15.1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3206,30 +3177,30 @@
       <c r="AMK1"/>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="15" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="1:7">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="15" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3250,7 +3221,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3267,7 +3238,7 @@
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1030">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
@@ -3433,8 +3404,8 @@
     <col min="7" max="8" width="18.8583333333333" style="2"/>
     <col min="9" max="10" width="10.5" style="2"/>
     <col min="11" max="1024" width="8.78333333333333" style="2"/>
-    <col min="1025" max="1026" width="8.78333333333333" style="15"/>
-    <col min="1027" max="16384" width="9" style="15"/>
+    <col min="1025" max="1026" width="8.78333333333333" style="11"/>
+    <col min="1027" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1025">
@@ -3474,7 +3445,7 @@
       <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMK1" s="15"/>
+      <c r="AMK1" s="11"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
@@ -3576,9 +3547,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
-    <col min="1" max="6" width="15.5333333333333" style="13"/>
-    <col min="7" max="1026" width="9.10833333333333" style="13"/>
-    <col min="1027" max="16384" width="9" style="13"/>
+    <col min="1" max="6" width="15.5333333333333" style="2"/>
+    <col min="7" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
@@ -3614,100 +3585,100 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="2" t="s">
         <v>86</v>
       </c>
     </row>
@@ -3731,7 +3702,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="2" activeTab="15"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -157,7 +157,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -621,11 +621,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -661,6 +661,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -669,88 +677,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -773,6 +699,50 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -780,15 +750,30 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,9 +786,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,13 +830,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,7 +860,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -866,7 +884,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -878,7 +896,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -890,19 +932,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -914,97 +1004,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,6 +1042,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1053,26 +1071,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1092,6 +1090,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1106,157 +1124,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2164,7 +2164,6 @@
       <c r="D2" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E2" s="2"/>
       <c r="F2" s="2" t="s">
         <v>137</v>
       </c>
@@ -2186,7 +2185,6 @@
       <c r="D3" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
         <v>139</v>
       </c>
@@ -2208,7 +2206,6 @@
       <c r="D4" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
         <v>141</v>
       </c>
@@ -2230,7 +2227,6 @@
       <c r="D5" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
         <v>143</v>
       </c>
@@ -2252,7 +2248,6 @@
       <c r="D6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
         <v>145</v>
       </c>
@@ -2463,7 +2458,7 @@
   <sheetPr/>
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -3041,10 +3036,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="A6" sqref="A6:B6"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>

--- a/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
+++ b/tests/multialgorithm/fixtures/test_model_for_access_species_populations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -64,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="199">
   <si>
     <t>Id</t>
   </si>
@@ -573,6 +573,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -639,6 +642,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -652,9 +658,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -665,11 +668,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -718,8 +721,17 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -732,11 +744,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -749,7 +761,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -763,21 +812,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -787,7 +821,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -802,38 +836,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -847,9 +850,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -868,7 +871,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -886,13 +949,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,25 +1003,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -934,25 +1033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,91 +1051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1091,6 +1094,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1153,150 +1171,135 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1304,7 +1307,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1358,12 +1361,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1763,15 +1760,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="10.6" style="19"/>
-    <col min="1026" max="16384" width="9" style="19"/>
+    <col min="1" max="1025" width="10.6" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1779,7 +1776,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1787,7 +1784,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1795,7 +1792,7 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1803,7 +1800,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1811,7 +1808,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1819,7 +1816,7 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2812,14 +2809,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K13" sqref="K13"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2830,7 +2827,7 @@
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2863,6 +2860,9 @@
       </c>
       <c r="K1" s="5" t="s">
         <v>24</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
@@ -3003,46 +3003,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>67</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -3088,31 +3088,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -3130,14 +3130,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3145,7 +3145,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3156,43 +3156,46 @@
         <v>67</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>197</v>
+        <v>169</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
